--- a/発表用/ガントチャート.xlsx
+++ b/発表用/ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\Mr.Driller\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser.DA\Desktop\Mr.Driller\発表用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>▼準備</t>
     <rPh sb="1" eb="3">
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>○</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>●</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -268,10 +264,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>●</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -355,10 +347,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Meun</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ゲーム画面】</t>
     <rPh sb="4" eb="6">
       <t>ガメン</t>
@@ -444,6 +432,69 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UpdataDebug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Menu</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -504,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +598,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1059,7 +1116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,12 +1201,111 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1195,39 +1351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1245,57 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1579,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1619,25 +1691,25 @@
       <c r="S1" s="24"/>
       <c r="T1" s="24"/>
       <c r="U1" s="24"/>
-      <c r="V1" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="W1" s="55"/>
+      <c r="V1" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="62"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="25"/>
-      <c r="B2" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="B2" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
@@ -1655,215 +1727,215 @@
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="35"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="68"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
+        <v>47</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="71"/>
       <c r="X4" s="1"/>
       <c r="Y4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
-      <c r="B5" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="38"/>
+      <c r="B5" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="71"/>
       <c r="X5" s="1"/>
       <c r="Y5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6"/>
-      <c r="B6" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="41"/>
+      <c r="B6" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="74"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="62"/>
+      <c r="Y6" s="37"/>
       <c r="Z6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="X7" s="1"/>
-      <c r="Y7" s="63"/>
+      <c r="Y7" s="38"/>
       <c r="Z7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="51">
         <v>42646</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="52">
         <v>42650</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="52">
         <v>42657</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="52">
         <v>42660</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="52">
         <v>42664</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="52">
         <v>42671</v>
       </c>
-      <c r="I8" s="77">
+      <c r="I8" s="52">
         <v>42674</v>
       </c>
-      <c r="J8" s="77">
+      <c r="J8" s="52">
         <v>42678</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="52">
         <v>42681</v>
       </c>
-      <c r="L8" s="77">
+      <c r="L8" s="52">
         <v>316</v>
       </c>
-      <c r="M8" s="77">
+      <c r="M8" s="52">
         <v>319</v>
       </c>
-      <c r="N8" s="77">
+      <c r="N8" s="52">
         <v>42692</v>
       </c>
-      <c r="O8" s="77">
+      <c r="O8" s="52">
         <v>42695</v>
       </c>
-      <c r="P8" s="77">
+      <c r="P8" s="52">
         <v>42699</v>
       </c>
-      <c r="Q8" s="77">
+      <c r="Q8" s="52">
         <v>42702</v>
       </c>
-      <c r="R8" s="77">
+      <c r="R8" s="52">
         <v>42706</v>
       </c>
-      <c r="S8" s="77">
+      <c r="S8" s="52">
         <v>42709</v>
       </c>
-      <c r="T8" s="77">
+      <c r="T8" s="52">
         <v>42713</v>
       </c>
-      <c r="U8" s="77">
+      <c r="U8" s="52">
         <v>42716</v>
       </c>
-      <c r="V8" s="77">
+      <c r="V8" s="52">
         <v>42720</v>
       </c>
-      <c r="W8" s="78">
+      <c r="W8" s="53">
         <v>42723</v>
       </c>
       <c r="X8" s="1"/>
@@ -1873,27 +1945,27 @@
         <v>0</v>
       </c>
       <c r="B9" s="19"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="74"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
@@ -1901,18 +1973,18 @@
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
@@ -1938,7 +2010,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -1969,11 +2041,11 @@
       <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="55" t="s">
         <v>42</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -2051,31 +2123,31 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="53"/>
-      <c r="T15" s="53"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="68"/>
+      <c r="A15" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="43"/>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
@@ -2085,13 +2157,13 @@
       <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="28"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="55" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -2119,18 +2191,16 @@
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
+      <c r="K17" s="18" t="s">
+        <v>80</v>
+      </c>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
@@ -2151,18 +2221,20 @@
       <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
@@ -2185,16 +2257,16 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
@@ -2233,31 +2305,31 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A21" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="53"/>
-      <c r="T21" s="53"/>
-      <c r="U21" s="53"/>
-      <c r="V21" s="53"/>
-      <c r="W21" s="68"/>
+      <c r="A21" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="43"/>
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.45">
@@ -2269,12 +2341,14 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="E22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="22"/>
       <c r="L22" s="22"/>
       <c r="M22" s="22"/>
@@ -2317,47 +2391,49 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="51"/>
-      <c r="P24" s="51"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="51"/>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52"/>
+      <c r="A24" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="35"/>
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A25" s="67" t="s">
-        <v>60</v>
+      <c r="A25" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2401,31 +2477,31 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A27" s="66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="66"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="68"/>
+      <c r="A27" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="41"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="43"/>
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
@@ -2438,10 +2514,12 @@
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="F28" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2471,10 +2549,10 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2504,8 +2582,8 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2535,10 +2613,10 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -2568,8 +2646,8 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -2591,9 +2669,9 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2624,7 +2702,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2654,7 +2732,7 @@
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2685,7 +2763,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
@@ -2715,7 +2793,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
@@ -2745,9 +2823,8 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -2785,31 +2862,31 @@
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A40" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
-      <c r="Q40" s="53"/>
-      <c r="R40" s="53"/>
-      <c r="S40" s="53"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="68"/>
+      <c r="A40" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="43"/>
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.45">
@@ -2823,10 +2900,12 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
+      <c r="G41" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2869,31 +2948,31 @@
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A43" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="66"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-      <c r="T43" s="51"/>
-      <c r="U43" s="51"/>
-      <c r="V43" s="51"/>
-      <c r="W43" s="52"/>
+      <c r="A43" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="41"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="35"/>
       <c r="X43" s="1"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.45">
@@ -2901,7 +2980,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="45"/>
+      <c r="C44" s="28"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -2921,7 +3000,7 @@
       <c r="T44" s="11"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
-      <c r="W44" s="50"/>
+      <c r="W44" s="33"/>
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.45">
@@ -2929,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -2949,7 +3028,7 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="50"/>
+      <c r="W45" s="33"/>
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.45">
@@ -3013,7 +3092,7 @@
       <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="45"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3026,22 +3105,24 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="11"/>
       <c r="V48" s="11"/>
-      <c r="W48" s="50"/>
+      <c r="W48" s="33"/>
       <c r="X48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="45"/>
+      <c r="B49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="28"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -3056,12 +3137,12 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
-      <c r="R49" s="11"/>
-      <c r="S49" s="11"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="50"/>
+      <c r="W49" s="33"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
@@ -3070,10 +3151,14 @@
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="45"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+      <c r="E50" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -3090,32 +3175,38 @@
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="50"/>
+      <c r="W50" s="33"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="45"/>
+      <c r="A51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="28"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="11"/>
+      <c r="E51" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="55"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="50"/>
+      <c r="W51" s="33"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A52" s="9" t="s">
@@ -3149,9 +3240,9 @@
         <v>30</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="45"/>
+        <v>52</v>
+      </c>
+      <c r="C53" s="28"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
       <c r="F53" s="11"/>
@@ -3171,16 +3262,16 @@
       <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
-      <c r="W53" s="50"/>
+      <c r="W53" s="33"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="45"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="28"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -3200,14 +3291,14 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="50"/>
+      <c r="W54" s="33"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="8"/>
-      <c r="C55" s="45"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -3227,17 +3318,17 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="50"/>
+      <c r="W55" s="33"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -3258,17 +3349,17 @@
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="50"/>
+      <c r="W56" s="33"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -3289,355 +3380,355 @@
       <c r="T57" s="18"/>
       <c r="U57" s="18"/>
       <c r="V57" s="18"/>
-      <c r="W57" s="46"/>
+      <c r="W57" s="29"/>
     </row>
     <row r="58" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="70"/>
-      <c r="K58" s="70"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="70"/>
-      <c r="N58" s="70"/>
-      <c r="O58" s="70"/>
-      <c r="P58" s="70"/>
-      <c r="Q58" s="70"/>
-      <c r="R58" s="70"/>
-      <c r="S58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="U58" s="70"/>
-      <c r="V58" s="70"/>
-      <c r="W58" s="71"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="46"/>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A59" s="48"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47"/>
-      <c r="J59" s="47"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="47"/>
-      <c r="O59" s="47"/>
-      <c r="P59" s="47"/>
-      <c r="Q59" s="47"/>
-      <c r="R59" s="47"/>
-      <c r="S59" s="47"/>
-      <c r="T59" s="47"/>
-      <c r="U59" s="47"/>
-      <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="30"/>
+      <c r="R59" s="30"/>
+      <c r="S59" s="30"/>
+      <c r="T59" s="30"/>
+      <c r="U59" s="30"/>
+      <c r="V59" s="30"/>
+      <c r="W59" s="30"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A60" s="48"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="47"/>
-      <c r="J60" s="47"/>
-      <c r="K60" s="47"/>
-      <c r="L60" s="47"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="47"/>
-      <c r="O60" s="47"/>
-      <c r="P60" s="47"/>
-      <c r="Q60" s="47"/>
-      <c r="R60" s="47"/>
-      <c r="S60" s="47"/>
-      <c r="T60" s="47"/>
-      <c r="U60" s="47"/>
-      <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="30"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="30"/>
+      <c r="T60" s="30"/>
+      <c r="U60" s="30"/>
+      <c r="V60" s="30"/>
+      <c r="W60" s="30"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A61" s="48"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="47"/>
-      <c r="J61" s="47"/>
-      <c r="K61" s="47"/>
-      <c r="L61" s="47"/>
-      <c r="M61" s="47"/>
-      <c r="N61" s="47"/>
-      <c r="O61" s="47"/>
-      <c r="P61" s="47"/>
-      <c r="Q61" s="47"/>
-      <c r="R61" s="47"/>
-      <c r="S61" s="47"/>
-      <c r="T61" s="47"/>
-      <c r="U61" s="47"/>
-      <c r="V61" s="47"/>
-      <c r="W61" s="47"/>
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="47"/>
-      <c r="J62" s="47"/>
-      <c r="K62" s="47"/>
-      <c r="L62" s="47"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="47"/>
-      <c r="O62" s="47"/>
-      <c r="P62" s="47"/>
-      <c r="Q62" s="47"/>
-      <c r="R62" s="47"/>
-      <c r="S62" s="47"/>
-      <c r="T62" s="47"/>
-      <c r="U62" s="47"/>
-      <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
+      <c r="A62" s="31"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
+      <c r="S62" s="30"/>
+      <c r="T62" s="30"/>
+      <c r="U62" s="30"/>
+      <c r="V62" s="30"/>
+      <c r="W62" s="30"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A63" s="49"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="49"/>
-      <c r="K63" s="49"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="32"/>
+      <c r="U63" s="32"/>
+      <c r="V63" s="32"/>
+      <c r="W63" s="32"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A64" s="49"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="47"/>
-      <c r="J64" s="47"/>
-      <c r="K64" s="47"/>
-      <c r="L64" s="47"/>
-      <c r="M64" s="47"/>
-      <c r="N64" s="47"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="47"/>
-      <c r="Q64" s="47"/>
-      <c r="R64" s="47"/>
-      <c r="S64" s="47"/>
-      <c r="T64" s="47"/>
-      <c r="U64" s="47"/>
-      <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
+      <c r="T64" s="30"/>
+      <c r="U64" s="30"/>
+      <c r="V64" s="30"/>
+      <c r="W64" s="30"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A65" s="48"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="47"/>
-      <c r="J65" s="47"/>
-      <c r="K65" s="47"/>
-      <c r="L65" s="47"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="47"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="47"/>
-      <c r="R65" s="47"/>
-      <c r="S65" s="47"/>
-      <c r="T65" s="47"/>
-      <c r="U65" s="47"/>
-      <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
+      <c r="T65" s="30"/>
+      <c r="U65" s="30"/>
+      <c r="V65" s="30"/>
+      <c r="W65" s="30"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="47"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="47"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="47"/>
-      <c r="Q66" s="47"/>
-      <c r="R66" s="47"/>
-      <c r="S66" s="47"/>
-      <c r="T66" s="47"/>
-      <c r="U66" s="47"/>
-      <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A67" s="48"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="47"/>
-      <c r="J67" s="47"/>
-      <c r="K67" s="47"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="47"/>
-      <c r="N67" s="47"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="47"/>
-      <c r="Q67" s="47"/>
-      <c r="R67" s="47"/>
-      <c r="S67" s="47"/>
-      <c r="T67" s="47"/>
-      <c r="U67" s="47"/>
-      <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
+      <c r="A67" s="31"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
+      <c r="Q67" s="30"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
+      <c r="T67" s="30"/>
+      <c r="U67" s="30"/>
+      <c r="V67" s="30"/>
+      <c r="W67" s="30"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="47"/>
-      <c r="J68" s="47"/>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="47"/>
-      <c r="P68" s="47"/>
-      <c r="Q68" s="47"/>
-      <c r="R68" s="47"/>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
+      <c r="A68" s="31"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
+      <c r="Q68" s="30"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
+      <c r="T68" s="30"/>
+      <c r="U68" s="30"/>
+      <c r="V68" s="30"/>
+      <c r="W68" s="30"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="47"/>
-      <c r="H69" s="47"/>
-      <c r="I69" s="47"/>
-      <c r="J69" s="47"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="47"/>
-      <c r="P69" s="47"/>
-      <c r="Q69" s="47"/>
-      <c r="R69" s="47"/>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
+      <c r="A69" s="31"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
+      <c r="T69" s="30"/>
+      <c r="U69" s="30"/>
+      <c r="V69" s="30"/>
+      <c r="W69" s="30"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="47"/>
-      <c r="J70" s="47"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="47"/>
-      <c r="Q70" s="47"/>
-      <c r="R70" s="47"/>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="47"/>
+      <c r="A70" s="31"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
+      <c r="Q70" s="30"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
+      <c r="T70" s="30"/>
+      <c r="U70" s="30"/>
+      <c r="V70" s="30"/>
+      <c r="W70" s="30"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="47"/>
-      <c r="H71" s="47"/>
-      <c r="I71" s="47"/>
-      <c r="J71" s="47"/>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="47"/>
-      <c r="P71" s="47"/>
-      <c r="Q71" s="47"/>
-      <c r="R71" s="47"/>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="47"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="30"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
+      <c r="Q71" s="30"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
+      <c r="T71" s="30"/>
+      <c r="U71" s="30"/>
+      <c r="V71" s="30"/>
+      <c r="W71" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3652,5 +3743,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/発表用/ガントチャート.xlsx
+++ b/発表用/ガントチャート.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
   <si>
     <t>▼準備</t>
     <rPh sb="1" eb="3">
@@ -418,19 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>更新日:10月19日</t>
-    <rPh sb="0" eb="3">
-      <t>コウシンビ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -499,6 +486,37 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StaffRoll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>杉山</t>
+    <rPh sb="0" eb="2">
+      <t>スギヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日:10月20日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StaffRollの追加</t>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -605,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -803,56 +821,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1110,13 +1078,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1174,130 +1172,118 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1315,8 +1301,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1327,46 +1328,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1670,123 +1674,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="W1" s="62"/>
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="58"/>
+      <c r="V1" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="W1" s="85"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="42" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="25"/>
-      <c r="B2" s="59" t="s">
+      <c r="A2" s="23"/>
+      <c r="B2" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="27"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="63" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="68"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="64"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="71"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="67"/>
       <c r="X4" s="1"/>
       <c r="Y4" t="s">
         <v>54</v>
@@ -1797,30 +1803,30 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="71"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="67"/>
       <c r="X5" s="1"/>
       <c r="Y5" t="s">
         <v>62</v>
@@ -1831,141 +1837,141 @@
     </row>
     <row r="6" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="6"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="74"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="69"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="69"/>
+      <c r="W6" s="70"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="37"/>
+      <c r="Y6" s="35"/>
       <c r="Z6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="X7" s="1"/>
-      <c r="Y7" s="38"/>
+      <c r="Y7" s="36"/>
       <c r="Z7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="46">
         <v>42646</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="47">
         <v>42650</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="47">
         <v>42657</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="47">
         <v>42660</v>
       </c>
-      <c r="G8" s="52">
+      <c r="G8" s="47">
         <v>42664</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="47">
         <v>42671</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8" s="47">
         <v>42674</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8" s="47">
         <v>42678</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="47">
         <v>42681</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="47">
         <v>316</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="47">
         <v>319</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="47">
         <v>42692</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="47">
         <v>42695</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P8" s="47">
         <v>42699</v>
       </c>
-      <c r="Q8" s="52">
+      <c r="Q8" s="47">
         <v>42702</v>
       </c>
-      <c r="R8" s="52">
+      <c r="R8" s="47">
         <v>42706</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S8" s="47">
         <v>42709</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T8" s="47">
         <v>42713</v>
       </c>
-      <c r="U8" s="52">
+      <c r="U8" s="47">
         <v>42716</v>
       </c>
-      <c r="V8" s="52">
+      <c r="V8" s="47">
         <v>42720</v>
       </c>
-      <c r="W8" s="53">
+      <c r="W8" s="48">
         <v>42723</v>
       </c>
       <c r="X8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
+      <c r="R9" s="82"/>
+      <c r="S9" s="82"/>
+      <c r="T9" s="82"/>
+      <c r="U9" s="82"/>
+      <c r="V9" s="82"/>
+      <c r="W9" s="83"/>
       <c r="X9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
@@ -1975,30 +1981,30 @@
       <c r="B10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55" t="s">
-        <v>81</v>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50" t="s">
+        <v>80</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
       <c r="W10" s="12"/>
       <c r="X10" s="1"/>
     </row>
@@ -2017,20 +2023,20 @@
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
       <c r="W11" s="12"/>
       <c r="X11" s="1"/>
     </row>
@@ -2041,30 +2047,30 @@
       <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
       <c r="W12" s="12"/>
       <c r="X12" s="1"/>
     </row>
@@ -2072,25 +2078,25 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
       <c r="W13" s="12"/>
       <c r="X13" s="1"/>
     </row>
@@ -2123,31 +2129,31 @@
       <c r="X14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="36"/>
-      <c r="T15" s="36"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="43"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="41"/>
       <c r="X15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.45">
@@ -2157,30 +2163,30 @@
       <c r="B16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="28"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="55" t="s">
+      <c r="E16" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
       <c r="W16" s="12"/>
       <c r="X16" s="1"/>
     </row>
@@ -2191,26 +2197,28 @@
       <c r="B17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
       <c r="W17" s="12"/>
       <c r="X17" s="1"/>
     </row>
@@ -2221,30 +2229,30 @@
       <c r="B18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
       <c r="W18" s="12"/>
       <c r="X18" s="1"/>
     </row>
@@ -2256,25 +2264,25 @@
         <v>32</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="22"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="22"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
       <c r="W19" s="12"/>
       <c r="X19" s="1"/>
     </row>
@@ -2305,31 +2313,31 @@
       <c r="X20" s="1"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="43"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="41"/>
       <c r="X21" s="1"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.45">
@@ -2340,27 +2348,27 @@
         <v>32</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="22"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
       <c r="W22" s="12"/>
       <c r="X22" s="1"/>
     </row>
@@ -2391,49 +2399,49 @@
       <c r="X23" s="1"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="35"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33"/>
       <c r="X24" s="1"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A25" s="42" t="s">
-        <v>82</v>
+      <c r="A25" s="40" t="s">
+        <v>81</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2477,31 +2485,31 @@
       <c r="X26" s="1"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="36"/>
-      <c r="T27" s="36"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="43"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="41"/>
       <c r="X27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.45">
@@ -2514,12 +2522,12 @@
       <c r="C28" s="7"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
+      <c r="F28" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2549,10 +2557,10 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2582,8 +2590,8 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
@@ -2613,10 +2621,10 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -2646,8 +2654,8 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -2670,7 +2678,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="18"/>
-      <c r="J33" s="37"/>
+      <c r="J33" s="84"/>
       <c r="K33" s="18"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2823,6 +2831,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
+      <c r="M38" s="29"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="3"/>
@@ -2862,31 +2871,31 @@
       <c r="X39" s="1"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="43"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
+      <c r="R40" s="34"/>
+      <c r="S40" s="34"/>
+      <c r="T40" s="34"/>
+      <c r="U40" s="34"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="41"/>
       <c r="X40" s="1"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.45">
@@ -2900,12 +2909,12 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
+      <c r="G41" s="51" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -2922,8 +2931,12 @@
       <c r="X41" s="1"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="C42" s="7"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2948,67 +2961,65 @@
       <c r="X42" s="1"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="1"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A44" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="1"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
       <c r="W44" s="33"/>
       <c r="X44" s="1"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="28"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="11"/>
@@ -3028,101 +3039,99 @@
       <c r="T45" s="11"/>
       <c r="U45" s="11"/>
       <c r="V45" s="11"/>
-      <c r="W45" s="33"/>
+      <c r="W45" s="31"/>
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A46" s="8"/>
+      <c r="A46" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="5"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="31"/>
       <c r="X46" s="1"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="1"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A48" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="15"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="15"/>
-      <c r="R47" s="15"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="1"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
-      <c r="A48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="33"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="16"/>
       <c r="X48" s="1"/>
     </row>
     <row r="49" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="C49" s="26"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -3135,30 +3144,26 @@
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="11"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="11"/>
       <c r="T49" s="11"/>
       <c r="U49" s="11"/>
       <c r="V49" s="11"/>
-      <c r="W49" s="33"/>
+      <c r="W49" s="31"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="28"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="55" t="s">
-        <v>73</v>
-      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -3170,108 +3175,112 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
-      <c r="R50" s="11"/>
-      <c r="S50" s="11"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
       <c r="T50" s="11"/>
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
-      <c r="W50" s="33"/>
+      <c r="W50" s="31"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="8" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="28"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
+      <c r="F51" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
       <c r="U51" s="11"/>
       <c r="V51" s="11"/>
-      <c r="W51" s="33"/>
+      <c r="W51" s="31"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="50"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="31"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A53" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="15"/>
-      <c r="T52" s="15"/>
-      <c r="U52" s="15"/>
-      <c r="V52" s="15"/>
-      <c r="W52" s="16"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A53" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="33"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="15"/>
+      <c r="U53" s="15"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="16"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="28"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="26"/>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -3291,14 +3300,16 @@
       <c r="T54" s="11"/>
       <c r="U54" s="11"/>
       <c r="V54" s="11"/>
-      <c r="W54" s="33"/>
+      <c r="W54" s="31"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="28"/>
+        <v>31</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="26"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
       <c r="F55" s="11"/>
@@ -3318,48 +3329,44 @@
       <c r="T55" s="11"/>
       <c r="U55" s="11"/>
       <c r="V55" s="11"/>
-      <c r="W55" s="33"/>
+      <c r="W55" s="31"/>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A56" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="B56" s="8"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
       <c r="V56" s="11"/>
-      <c r="W56" s="33"/>
+      <c r="W56" s="31"/>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -3375,371 +3382,378 @@
       <c r="O57" s="18"/>
       <c r="P57" s="18"/>
       <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="29"/>
-    </row>
-    <row r="58" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45"/>
-      <c r="J58" s="45"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45"/>
-      <c r="U58" s="45"/>
-      <c r="V58" s="45"/>
-      <c r="W58" s="46"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="30"/>
-      <c r="V59" s="30"/>
-      <c r="W59" s="30"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="31"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A58" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="27"/>
+    </row>
+    <row r="59" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="44"/>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="30"/>
-      <c r="V60" s="30"/>
-      <c r="W60" s="30"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="28"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A61" s="31"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="28"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A62" s="31"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="30"/>
-      <c r="W62" s="30"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="28"/>
+      <c r="Q62" s="28"/>
+      <c r="R62" s="28"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A63" s="32"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A64" s="32"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="30"/>
-      <c r="V64" s="30"/>
-      <c r="W64" s="30"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="30"/>
-      <c r="V65" s="30"/>
-      <c r="W65" s="30"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="28"/>
+      <c r="Q65" s="28"/>
+      <c r="R65" s="28"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="30"/>
-      <c r="V66" s="30"/>
-      <c r="W66" s="30"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A67" s="31"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="30"/>
-      <c r="V67" s="30"/>
-      <c r="W67" s="30"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A68" s="31"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="30"/>
-      <c r="V68" s="30"/>
-      <c r="W68" s="30"/>
+      <c r="A68" s="29"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A69" s="31"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="30"/>
-      <c r="V69" s="30"/>
-      <c r="W69" s="30"/>
+      <c r="A69" s="29"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="28"/>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A70" s="31"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="30"/>
-      <c r="V70" s="30"/>
-      <c r="W70" s="30"/>
+      <c r="A70" s="29"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28"/>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="30"/>
-      <c r="V71" s="30"/>
-      <c r="W71" s="30"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="H3:W6"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
